--- a/pjets/expdata/20006.xlsx
+++ b/pjets/expdata/20006.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yiyu/Google Drive/ing/jefferson lab/scholarship/monte carlo/code/fitpack_old/database/pjet/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA339CFB-518B-9C40-AD55-99BBC6491A88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="27200" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>idx</t>
+  </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>particles-in</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
+    <t>pt-min</t>
+  </si>
+  <si>
+    <t>pt-max</t>
+  </si>
+  <si>
     <t>pT</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>eta-abs-min</t>
+  </si>
+  <si>
+    <t>eta-abs-max</t>
+  </si>
+  <si>
+    <t>cone-radius</t>
   </si>
   <si>
     <t>obs</t>
@@ -42,19 +55,22 @@
     <t>value</t>
   </si>
   <si>
-    <t>eta_abs_min</t>
+    <t>stat_u</t>
   </si>
   <si>
-    <t>eta_abs_max</t>
+    <t>sys_u</t>
   </si>
   <si>
-    <t>tau</t>
+    <t>underlying-event_c</t>
   </si>
   <si>
-    <t>idx</t>
+    <t>trigger-and-reconstruction-bias_c</t>
   </si>
   <si>
-    <t>stat_u</t>
+    <t>shift_c</t>
+  </si>
+  <si>
+    <t>%-norm_c</t>
   </si>
   <si>
     <t>star</t>
@@ -65,70 +81,383 @@
   <si>
     <t>&lt;a_ll&gt;</t>
   </si>
-  <si>
-    <t>cone_radius</t>
-  </si>
-  <si>
-    <t>shift_c</t>
-  </si>
-  <si>
-    <t>%_norm_c</t>
-  </si>
-  <si>
-    <t>particles_in</t>
-  </si>
-  <si>
-    <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
-  </si>
-  <si>
-    <t>sys_u</t>
-  </si>
-  <si>
-    <t>underlying-event_c</t>
-  </si>
-  <si>
-    <t>trigger-and-reconstruction-bias_c</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -136,9 +465,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -152,17 +723,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -211,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,26 +859,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -296,23 +894,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,103 +1035,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.2844827586207" customWidth="1"/>
+    <col min="3" max="3" width="13.8534482758621" customWidth="1"/>
+    <col min="4" max="8" width="10.2844827586207" customWidth="1"/>
+    <col min="9" max="9" width="14.8534482758621" customWidth="1"/>
+    <col min="10" max="11" width="15.5689655172414" customWidth="1"/>
+    <col min="12" max="12" width="7.85344827586207" customWidth="1"/>
+    <col min="13" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7112068965517" customWidth="1"/>
+    <col min="17" max="17" width="39.8534482758621" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="1029" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.8534482758621" customWidth="1"/>
+    <col min="20" max="22" width="10.2844827586207" customWidth="1"/>
+    <col min="23" max="23" width="11.8534482758621" customWidth="1"/>
+    <col min="24" max="24" width="14.1422413793103" customWidth="1"/>
+    <col min="25" max="1029" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" ht="35.6" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -558,15 +1133,15 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" ht="35.6" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>510</v>
@@ -575,14 +1150,14 @@
         <v>6.76</v>
       </c>
       <c r="F2" s="1">
-        <v>7.2799999999999994</v>
+        <v>7.28</v>
       </c>
       <c r="G2" s="1">
         <v>7.02</v>
       </c>
       <c r="H2" s="1">
-        <f>2*G2/D2</f>
-        <v>2.7529411764705882E-2</v>
+        <f t="shared" ref="H2:H15" si="0">2*G2/D2</f>
+        <v>0.0275294117647059</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -594,25 +1169,25 @@
         <v>0.5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3">
-        <v>1.7099999999999999E-5</v>
+        <v>1.71e-5</v>
       </c>
       <c r="N2" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>0.0013</v>
       </c>
       <c r="O2" s="1">
-        <v>1.3200000000000001E-4</v>
+        <v>0.000132</v>
       </c>
       <c r="P2" s="1">
-        <v>2.9E-4</v>
+        <v>0.00029</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.2999999999999999E-4</v>
+        <v>0.00013</v>
       </c>
       <c r="R2" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S2" s="1">
         <v>6.6</v>
@@ -623,15 +1198,15 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" ht="35.6" spans="1:24">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>510</v>
@@ -646,8 +1221,8 @@
         <v>7.97</v>
       </c>
       <c r="H3" s="1">
-        <f>2*G3/D3</f>
-        <v>3.1254901960784315E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0312549019607843</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -659,25 +1234,25 @@
         <v>0.5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1">
-        <v>-2.15E-3</v>
+        <v>-0.00215</v>
       </c>
       <c r="N3" s="1">
-        <v>1.4E-3</v>
+        <v>0.0014</v>
       </c>
       <c r="O3" s="1">
-        <v>4.8500000000000003E-4</v>
+        <v>0.000485</v>
       </c>
       <c r="P3" s="1">
-        <v>2.4000000000000001E-4</v>
+        <v>0.00024</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.8999999999999998E-4</v>
+        <v>0.00049</v>
       </c>
       <c r="R3" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S3" s="1">
         <v>6.6</v>
@@ -688,21 +1263,21 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" ht="35.6" spans="1:24">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>510</v>
       </c>
       <c r="E4" s="1">
-        <v>9.5400000000000009</v>
+        <v>9.54</v>
       </c>
       <c r="F4" s="1">
         <v>10.26</v>
@@ -711,8 +1286,8 @@
         <v>9.9</v>
       </c>
       <c r="H4" s="1">
-        <f>2*G4/D4</f>
-        <v>3.8823529411764708E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0388235294117647</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -724,25 +1299,25 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1">
-        <v>1.6199999999999999E-3</v>
+        <v>0.00162</v>
       </c>
       <c r="N4" s="1">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="O4" s="1">
-        <v>1.0900000000000001E-4</v>
+        <v>0.000109</v>
       </c>
       <c r="P4" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.1E-4</v>
+        <v>0.00011</v>
       </c>
       <c r="R4" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S4" s="1">
         <v>6.6</v>
@@ -753,15 +1328,15 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" ht="35.6" spans="1:24">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>510</v>
@@ -776,8 +1351,8 @@
         <v>11.56</v>
       </c>
       <c r="H5" s="1">
-        <f>2*G5/D5</f>
-        <v>4.5333333333333337E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0453333333333333</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -789,25 +1364,25 @@
         <v>0.5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M5" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="N5" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>0.0011</v>
       </c>
       <c r="O5" s="3">
-        <v>8.0099999999999995E-5</v>
+        <v>8.01e-5</v>
       </c>
       <c r="P5" s="3">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="Q5" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>8e-5</v>
       </c>
       <c r="R5" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S5" s="1">
         <v>6.6</v>
@@ -818,21 +1393,21 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" ht="35.6" spans="1:24">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>510</v>
       </c>
       <c r="E6" s="1">
-        <v>12.899999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="F6" s="1">
         <v>13.84</v>
@@ -841,8 +1416,8 @@
         <v>13.37</v>
       </c>
       <c r="H6" s="1">
-        <f>2*G6/D6</f>
-        <v>5.2431372549019604E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0524313725490196</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -854,25 +1429,25 @@
         <v>0.5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1">
-        <v>1.48E-3</v>
+        <v>0.00148</v>
       </c>
       <c r="N6" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>0.0013</v>
       </c>
       <c r="O6" s="1">
-        <v>1.06E-4</v>
+        <v>0.000106</v>
       </c>
       <c r="P6" s="1">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.1E-4</v>
+        <v>0.00011</v>
       </c>
       <c r="R6" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S6" s="1">
         <v>6.6</v>
@@ -883,15 +1458,15 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" ht="35.6" spans="1:24">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>510</v>
@@ -906,8 +1481,8 @@
         <v>15.61</v>
       </c>
       <c r="H7" s="1">
-        <f>2*G7/D7</f>
-        <v>6.1215686274509802E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0612156862745098</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -919,25 +1494,25 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1">
-        <v>2.9299999999999999E-3</v>
+        <v>0.00293</v>
       </c>
       <c r="N7" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O7" s="1">
-        <v>1.5899999999999999E-4</v>
+        <v>0.000159</v>
       </c>
       <c r="P7" s="1">
-        <v>1.2999999999999999E-4</v>
+        <v>0.00013</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.6000000000000001E-4</v>
+        <v>0.00016</v>
       </c>
       <c r="R7" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S7" s="1">
         <v>6.6</v>
@@ -948,31 +1523,31 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" ht="35.6" spans="1:24">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>510</v>
       </c>
       <c r="E8" s="1">
-        <v>18.389999999999997</v>
+        <v>18.39</v>
       </c>
       <c r="F8" s="1">
         <v>19.59</v>
       </c>
       <c r="G8" s="1">
-        <v>18.989999999999998</v>
+        <v>18.99</v>
       </c>
       <c r="H8" s="1">
-        <f>2*G8/D8</f>
-        <v>7.4470588235294108E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0744705882352941</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -984,25 +1559,25 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1">
-        <v>1.58E-3</v>
+        <v>0.00158</v>
       </c>
       <c r="N8" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O8" s="1">
-        <v>1.3899999999999999E-4</v>
+        <v>0.000139</v>
       </c>
       <c r="P8" s="1">
-        <v>1.2E-4</v>
+        <v>0.00012</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.3999999999999999E-4</v>
+        <v>0.00014</v>
       </c>
       <c r="R8" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S8" s="1">
         <v>6.6</v>
@@ -1013,21 +1588,21 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" ht="35.6" spans="1:24">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>510</v>
       </c>
       <c r="E9" s="1">
-        <v>21.540000000000003</v>
+        <v>21.54</v>
       </c>
       <c r="F9" s="1">
         <v>22.8</v>
@@ -1036,8 +1611,8 @@
         <v>22.17</v>
       </c>
       <c r="H9" s="1">
-        <f>2*G9/D9</f>
-        <v>8.6941176470588244E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0869411764705882</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1049,25 +1624,25 @@
         <v>0.5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1">
-        <v>4.45E-3</v>
+        <v>0.00445</v>
       </c>
       <c r="N9" s="1">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="O9" s="1">
-        <v>2.2800000000000001E-4</v>
+        <v>0.000228</v>
       </c>
       <c r="P9" s="1">
-        <v>1.1E-4</v>
+        <v>0.00011</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.3000000000000001E-4</v>
+        <v>0.00023</v>
       </c>
       <c r="R9" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S9" s="1">
         <v>6.6</v>
@@ -1078,15 +1653,15 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" ht="35.6" spans="1:24">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>510</v>
@@ -1101,8 +1676,8 @@
         <v>25.66</v>
       </c>
       <c r="H10" s="1">
-        <f>2*G10/D10</f>
-        <v>0.10062745098039216</v>
+        <f t="shared" si="0"/>
+        <v>0.100627450980392</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1114,25 +1689,25 @@
         <v>0.5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1">
-        <v>4.96E-3</v>
+        <v>0.00496</v>
       </c>
       <c r="N10" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>0.0021</v>
       </c>
       <c r="O10" s="1">
-        <v>1.7699999999999999E-4</v>
+        <v>0.000177</v>
       </c>
       <c r="P10" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>9e-5</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="R10" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S10" s="1">
         <v>6.6</v>
@@ -1143,15 +1718,15 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" ht="35.6" spans="1:24">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>510</v>
@@ -1160,14 +1735,14 @@
         <v>28.82</v>
       </c>
       <c r="F11" s="1">
-        <v>30.479999999999997</v>
+        <v>30.48</v>
       </c>
       <c r="G11" s="1">
         <v>29.65</v>
       </c>
       <c r="H11" s="1">
-        <f>2*G11/D11</f>
-        <v>0.11627450980392157</v>
+        <f t="shared" si="0"/>
+        <v>0.116274509803922</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1179,25 +1754,25 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>0.0036</v>
       </c>
       <c r="N11" s="1">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="O11" s="1">
-        <v>2.5099999999999998E-4</v>
+        <v>0.000251</v>
       </c>
       <c r="P11" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>8e-5</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.5000000000000001E-4</v>
+        <v>0.00025</v>
       </c>
       <c r="R11" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S11" s="1">
         <v>6.6</v>
@@ -1208,15 +1783,15 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" ht="35.6" spans="1:24">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>510</v>
@@ -1225,14 +1800,14 @@
         <v>33.43</v>
       </c>
       <c r="F12" s="1">
-        <v>35.330000000000005</v>
+        <v>35.33</v>
       </c>
       <c r="G12" s="1">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="H12" s="1">
-        <f>2*G12/D12</f>
-        <v>0.1348235294117647</v>
+        <f t="shared" si="0"/>
+        <v>0.134823529411765</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1244,25 +1819,25 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1">
-        <v>1.6899999999999998E-2</v>
+        <v>0.0169</v>
       </c>
       <c r="N12" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="O12" s="1">
-        <v>3.7599999999999998E-4</v>
+        <v>0.000376</v>
       </c>
       <c r="P12" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>7e-5</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.8000000000000002E-4</v>
+        <v>0.00038</v>
       </c>
       <c r="R12" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S12" s="1">
         <v>6.6</v>
@@ -1273,15 +1848,15 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" ht="35.6" spans="1:24">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>510</v>
@@ -1290,14 +1865,14 @@
         <v>38.6</v>
       </c>
       <c r="F13" s="1">
-        <v>40.800000000000004</v>
+        <v>40.8</v>
       </c>
       <c r="G13" s="1">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="H13" s="1">
-        <f>2*G13/D13</f>
-        <v>0.15568627450980393</v>
+        <f t="shared" si="0"/>
+        <v>0.155686274509804</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1309,25 +1884,25 @@
         <v>0.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1">
-        <v>-4.9199999999999999E-3</v>
+        <v>-0.00492</v>
       </c>
       <c r="N13" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>0.0054</v>
       </c>
       <c r="O13" s="1">
-        <v>3.3599999999999998E-4</v>
+        <v>0.000336</v>
       </c>
       <c r="P13" s="1">
-        <v>6.0000000000000002E-5</v>
+        <v>6e-5</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.4000000000000002E-4</v>
+        <v>0.00034</v>
       </c>
       <c r="R13" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S13" s="1">
         <v>6.6</v>
@@ -1338,21 +1913,21 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" ht="35.6" spans="1:24">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>510</v>
       </c>
       <c r="E14" s="1">
-        <v>45.099999999999994</v>
+        <v>45.1</v>
       </c>
       <c r="F14" s="1">
         <v>47.5</v>
@@ -1361,8 +1936,8 @@
         <v>46.3</v>
       </c>
       <c r="H14" s="1">
-        <f>2*G14/D14</f>
-        <v>0.18156862745098037</v>
+        <f t="shared" si="0"/>
+        <v>0.18156862745098</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1374,25 +1949,25 @@
         <v>0.5</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M14" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>0.0122</v>
       </c>
       <c r="N14" s="1">
-        <v>8.3999999999999995E-3</v>
+        <v>0.0084</v>
       </c>
       <c r="O14" s="1">
-        <v>6.87E-4</v>
+        <v>0.000687</v>
       </c>
       <c r="P14" s="1">
-        <v>6.0000000000000002E-5</v>
+        <v>6e-5</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.8999999999999997E-4</v>
+        <v>0.00069</v>
       </c>
       <c r="R14" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S14" s="1">
         <v>6.6</v>
@@ -1403,15 +1978,15 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" ht="35.6" spans="1:19">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>510</v>
@@ -1426,8 +2001,8 @@
         <v>53.8</v>
       </c>
       <c r="H15" s="1">
-        <f>2*G15/D15</f>
-        <v>0.21098039215686273</v>
+        <f t="shared" si="0"/>
+        <v>0.210980392156863</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1439,31 +2014,31 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M15" s="1">
-        <v>1.7700000000000001E-3</v>
+        <v>0.00177</v>
       </c>
       <c r="N15" s="1">
-        <v>1.37E-2</v>
+        <v>0.0137</v>
       </c>
       <c r="O15" s="1">
-        <v>8.1300000000000003E-4</v>
+        <v>0.000813</v>
       </c>
       <c r="P15" s="1">
-        <v>5.0000000000000002E-5</v>
+        <v>5e-5</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.0999999999999996E-4</v>
+        <v>0.00081</v>
       </c>
       <c r="R15" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.00022</v>
       </c>
       <c r="S15" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" ht="35.6" spans="2:18">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1479,7 +2054,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" ht="35.6" spans="2:18">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1495,7 +2070,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" ht="35.6" spans="2:18">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1511,7 +2086,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" ht="35.6" spans="2:18">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1527,7 +2102,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" ht="35.6" spans="2:18">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1543,7 +2118,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" ht="35.6" spans="2:18">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1559,7 +2134,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" ht="35.6" spans="2:18">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1575,7 +2150,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" ht="35.6" spans="2:18">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1591,7 +2166,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" ht="35.6" spans="2:18">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1607,7 +2182,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" ht="35.6" spans="2:18">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1623,7 +2198,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" ht="35.6" spans="2:18">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1639,7 +2214,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" ht="35.6" spans="2:18">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1656,7 +2231,8 @@
       <c r="R27" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pjets/expdata/20006.xlsx
+++ b/pjets/expdata/20006.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="500"/>
+    <workbookView windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>sys_u</t>
-  </si>
-  <si>
     <t>underlying-event_c</t>
   </si>
   <si>
-    <t>trigger-and-reconstruction-bias_c</t>
+    <t>pdf_c</t>
+  </si>
+  <si>
+    <t>stat-vertex_u</t>
   </si>
   <si>
     <t>shift_c</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -127,15 +127,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,29 +144,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,11 +164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,39 +182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,7 +205,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +278,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,43 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,115 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,30 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,7 +485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +516,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -554,154 +563,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,10 +1043,10 @@
   <sheetPr/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
@@ -1058,9 +1058,9 @@
     <col min="10" max="11" width="15.5689655172414" customWidth="1"/>
     <col min="12" max="12" width="7.85344827586207" customWidth="1"/>
     <col min="13" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="22.7112068965517" customWidth="1"/>
-    <col min="17" max="17" width="39.8534482758621" customWidth="1"/>
+    <col min="15" max="15" width="22.7112068965517" customWidth="1"/>
+    <col min="16" max="16" width="11.7931034482759" customWidth="1"/>
+    <col min="17" max="17" width="16.6206896551724" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
     <col min="19" max="19" width="12.8534482758621" customWidth="1"/>
     <col min="20" max="22" width="10.2844827586207" customWidth="1"/>
@@ -1178,13 +1178,13 @@
         <v>0.0013</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000132</v>
+        <v>0.00029</v>
       </c>
       <c r="P2" s="1">
-        <v>0.00029</v>
+        <v>0.00013</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.00013</v>
+        <v>3e-5</v>
       </c>
       <c r="R2" s="1">
         <v>0.00022</v>
@@ -1243,13 +1243,13 @@
         <v>0.0014</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000485</v>
+        <v>0.00024</v>
       </c>
       <c r="P3" s="1">
-        <v>0.00024</v>
+        <v>0.00037</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.00049</v>
+        <v>0.00032</v>
       </c>
       <c r="R3" s="1">
         <v>0.00022</v>
@@ -1308,13 +1308,13 @@
         <v>0.001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000109</v>
+        <v>0.00022</v>
       </c>
       <c r="P4" s="1">
-        <v>0.00022</v>
+        <v>7e-5</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.00011</v>
+        <v>8e-5</v>
       </c>
       <c r="R4" s="1">
         <v>0.00022</v>
@@ -1372,14 +1372,14 @@
       <c r="N5" s="1">
         <v>0.0011</v>
       </c>
-      <c r="O5" s="3">
-        <v>8.01e-5</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="O5" s="1">
         <v>0.00018</v>
       </c>
-      <c r="Q5" s="3">
-        <v>8e-5</v>
+      <c r="P5" s="1">
+        <v>7e-5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4e-5</v>
       </c>
       <c r="R5" s="1">
         <v>0.00022</v>
@@ -1438,13 +1438,13 @@
         <v>0.0013</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000106</v>
+        <v>0.00016</v>
       </c>
       <c r="P6" s="1">
-        <v>0.00016</v>
+        <v>8e-5</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.00011</v>
+        <v>7e-5</v>
       </c>
       <c r="R6" s="1">
         <v>0.00022</v>
@@ -1503,13 +1503,13 @@
         <v>0.0016</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000159</v>
+        <v>0.00013</v>
       </c>
       <c r="P7" s="1">
+        <v>9e-5</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0.00013</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.00016</v>
       </c>
       <c r="R7" s="1">
         <v>0.00022</v>
@@ -1568,13 +1568,13 @@
         <v>0.0016</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000139</v>
+        <v>0.00012</v>
       </c>
       <c r="P8" s="1">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.00014</v>
+        <v>9e-5</v>
       </c>
       <c r="R8" s="1">
         <v>0.00022</v>
@@ -1633,13 +1633,13 @@
         <v>0.0018</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000228</v>
+        <v>0.00011</v>
       </c>
       <c r="P9" s="1">
-        <v>0.00011</v>
+        <v>0.00019</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.00023</v>
+        <v>0.00013</v>
       </c>
       <c r="R9" s="1">
         <v>0.00022</v>
@@ -1698,13 +1698,13 @@
         <v>0.0021</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000177</v>
+        <v>9e-5</v>
       </c>
       <c r="P10" s="1">
-        <v>9e-5</v>
+        <v>0.00013</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.00018</v>
+        <v>0.00012</v>
       </c>
       <c r="R10" s="1">
         <v>0.00022</v>
@@ -1763,13 +1763,13 @@
         <v>0.0027</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000251</v>
+        <v>8e-5</v>
       </c>
       <c r="P11" s="1">
-        <v>8e-5</v>
+        <v>0.0002</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.00025</v>
+        <v>0.00015</v>
       </c>
       <c r="R11" s="1">
         <v>0.00022</v>
@@ -1828,13 +1828,13 @@
         <v>0.0037</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000376</v>
+        <v>7e-5</v>
       </c>
       <c r="P12" s="1">
-        <v>7e-5</v>
+        <v>0.00025</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.00038</v>
+        <v>0.00028</v>
       </c>
       <c r="R12" s="1">
         <v>0.00022</v>
@@ -1893,13 +1893,13 @@
         <v>0.0054</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000336</v>
+        <v>6e-5</v>
       </c>
       <c r="P13" s="1">
-        <v>6e-5</v>
+        <v>0.00019</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.00034</v>
+        <v>0.00028</v>
       </c>
       <c r="R13" s="1">
         <v>0.00022</v>
@@ -1958,13 +1958,13 @@
         <v>0.0084</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000687</v>
+        <v>6e-5</v>
       </c>
       <c r="P14" s="1">
-        <v>6e-5</v>
+        <v>0.00052</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.00069</v>
+        <v>0.00045</v>
       </c>
       <c r="R14" s="1">
         <v>0.00022</v>
@@ -2023,13 +2023,13 @@
         <v>0.0137</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000813</v>
+        <v>5e-5</v>
       </c>
       <c r="P15" s="1">
-        <v>5e-5</v>
+        <v>0.00056</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.00081</v>
+        <v>0.00059</v>
       </c>
       <c r="R15" s="1">
         <v>0.00022</v>
@@ -2231,7 +2231,7 @@
       <c r="R27" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
